--- a/0_appendix/labeling/larvae_tube_labels.xlsx
+++ b/0_appendix/labeling/larvae_tube_labels.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">Date :  
 Code : L-T1-G1</t>
@@ -415,6 +415,46 @@
   <si>
     <t xml:space="preserve">Date :  
 Code : L-T5-G100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date :  
+Code : L-T1-G101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date :  
+Code : L-T1-G102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date :  
+Code : L-T2-G103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date :  
+Code : L-T2-G104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date :  
+Code : L-T3-G105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date :  
+Code : L-T3-G106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date :  
+Code : L-T4-G107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date :  
+Code : L-T4-G108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date :  
+Code : L-T5-G109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date :  
+Code : L-T5-G110</t>
   </si>
 </sst>
 </file>
@@ -1322,19 +1362,69 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
+      <c r="A26" t="s">
+        <v>101</v>
+      </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26"/>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
       <c r="D26" t="s">
         <v>1</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" t="s">
+        <v>103</v>
+      </c>
       <c r="F26" t="s">
         <v>1</v>
       </c>
-      <c r="G26"/>
+      <c r="G26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
